--- a/NumLab/data/geo_localization.xlsx
+++ b/NumLab/data/geo_localization.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>heversine_distance</t>
+          <t>haversine_distance</t>
         </is>
       </c>
     </row>
